--- a/biology/Botanique/Lomandra/Lomandra.xlsx
+++ b/biology/Botanique/Lomandra/Lomandra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lomandra, communément appelé  mat rushes (tapis de joncs)[1], est un genre de monocotylédones herbacées vivaces de la famille des Asparagaceae, sous-famille des Lomandroideae[2]. Il existe 60 espèces, toutes originaires d'Australie ; deux d'entre elles s'étendent également en Nouvelle-Guinée et en Nouvelle-Calédonie.
-Ce sont généralement des plantes vivaces dioïques touffues avec de longues feuilles étroites en forme de lame qui naissent d'une base centrale sans tige et ont d'épaix rhizomes ligneux et des racines fibreuses[1].
+Lomandra, communément appelé  mat rushes (tapis de joncs), est un genre de monocotylédones herbacées vivaces de la famille des Asparagaceae, sous-famille des Lomandroideae. Il existe 60 espèces, toutes originaires d'Australie ; deux d'entre elles s'étendent également en Nouvelle-Guinée et en Nouvelle-Calédonie.
+Ce sont généralement des plantes vivaces dioïques touffues avec de longues feuilles étroites en forme de lame qui naissent d'une base centrale sans tige et ont d'épaix rhizomes ligneux et des racines fibreuses.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Désormais parmi les Asparagacées, ce genre était autrefois attribué à la famille des Dasypogonaceae, des Xanthorrhoeaceae ou des Liliaceae.
 </t>
@@ -544,9 +558,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la World Checklist of Selected Plant Families (liste mondiale des familles de plantes sélectionnées), 60 espèces étaient reconnues en janvier 2024[3] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la World Checklist of Selected Plant Families (liste mondiale des familles de plantes sélectionnées), 60 espèces étaient reconnues en janvier 2024 : 
 </t>
         </is>
       </c>
